--- a/data/mpg.xlsx
+++ b/data/mpg.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\python-sat\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwonsoonhyun/Library/Mobile Documents/iCloud~com~omz-software~Pythonista3/Documents/DataAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1403CA5-4386-8147-AF70-DEFC10E0C0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="5550"/>
+    <workbookView xWindow="-52900" yWindow="1360" windowWidth="43480" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
@@ -285,8 +286,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,7 +907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1234,16 +1235,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1279,7 +1283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1355,7 +1359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1393,7 +1397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1431,7 +1435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1469,7 +1473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1507,7 +1511,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1545,7 +1549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1583,7 +1587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1659,7 +1663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1697,7 +1701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1735,7 +1739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1773,7 +1777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1811,7 +1815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1849,7 +1853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1887,7 +1891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1925,7 +1929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1963,7 +1967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2001,7 +2005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2039,7 +2043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2077,7 +2081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2115,7 +2119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2153,7 +2157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2191,7 +2195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2229,7 +2233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2267,7 +2271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2305,7 +2309,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2343,7 +2347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2381,7 +2385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2419,7 +2423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2457,7 +2461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2495,7 +2499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2533,7 +2537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2571,7 +2575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2609,7 +2613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2647,7 +2651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2685,7 +2689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2723,7 +2727,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2761,7 +2765,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2799,7 +2803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2875,7 +2879,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2913,7 +2917,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2951,7 +2955,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2989,7 +2993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3027,7 +3031,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3065,7 +3069,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3103,7 +3107,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3141,7 +3145,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3179,7 +3183,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3217,7 +3221,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3255,7 +3259,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3293,7 +3297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3331,7 +3335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3369,7 +3373,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3407,7 +3411,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3445,7 +3449,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3483,7 +3487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3521,7 +3525,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3559,7 +3563,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3597,7 +3601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3635,7 +3639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3673,7 +3677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3711,7 +3715,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3749,7 +3753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3787,7 +3791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3825,7 +3829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3863,7 +3867,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3901,7 +3905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3977,7 +3981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -4015,7 +4019,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -4053,7 +4057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -4091,7 +4095,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4167,7 +4171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -4205,7 +4209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -4243,7 +4247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -4281,7 +4285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -4319,7 +4323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -4357,7 +4361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -4395,7 +4399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -4433,7 +4437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -4471,7 +4475,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -4509,7 +4513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -4547,7 +4551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -4585,7 +4589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -4623,7 +4627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -4661,7 +4665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -4699,7 +4703,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -4737,7 +4741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -4775,7 +4779,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -4813,7 +4817,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -4851,7 +4855,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4889,7 +4893,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -4927,7 +4931,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -4965,7 +4969,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -5003,7 +5007,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -5041,7 +5045,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -5079,7 +5083,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -5117,7 +5121,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -5155,7 +5159,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -5193,7 +5197,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -5231,7 +5235,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -5269,7 +5273,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -5307,7 +5311,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -5345,7 +5349,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -5383,7 +5387,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -5421,7 +5425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -5459,7 +5463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -5497,7 +5501,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -5535,7 +5539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -5573,7 +5577,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -5611,7 +5615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -5649,7 +5653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -5687,7 +5691,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -5725,7 +5729,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -5763,7 +5767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -5801,7 +5805,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -5839,7 +5843,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -5877,7 +5881,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -5915,7 +5919,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -5953,7 +5957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -5991,7 +5995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -6029,7 +6033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -6067,7 +6071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -6105,7 +6109,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -6143,7 +6147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -6181,7 +6185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -6219,7 +6223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -6257,7 +6261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -6295,7 +6299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -6333,7 +6337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -6371,7 +6375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -6409,7 +6413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -6447,7 +6451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -6485,7 +6489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -6523,7 +6527,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -6561,7 +6565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -6599,7 +6603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -6637,7 +6641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -6675,7 +6679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -6713,7 +6717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -6751,7 +6755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -6789,7 +6793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -6827,7 +6831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -6865,7 +6869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -6903,7 +6907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -6941,7 +6945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -6979,7 +6983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -7017,7 +7021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -7055,7 +7059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -7093,7 +7097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -7131,7 +7135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -7169,7 +7173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -7207,7 +7211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -7245,7 +7249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -7283,7 +7287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -7321,7 +7325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -7359,7 +7363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -7397,7 +7401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -7435,7 +7439,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -7473,7 +7477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -7511,7 +7515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -7549,7 +7553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -7587,7 +7591,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -7625,7 +7629,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -7663,7 +7667,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -7701,7 +7705,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -7739,7 +7743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -7777,7 +7781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -7815,7 +7819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -7853,7 +7857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -7891,7 +7895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -7929,7 +7933,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -7967,7 +7971,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -8005,7 +8009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -8043,7 +8047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -8081,7 +8085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -8119,7 +8123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -8157,7 +8161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -8195,7 +8199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -8233,7 +8237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -8271,7 +8275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -8309,7 +8313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -8347,7 +8351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -8385,7 +8389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -8423,7 +8427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -8461,7 +8465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -8499,7 +8503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -8537,7 +8541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -8575,7 +8579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -8613,7 +8617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -8651,7 +8655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -8689,7 +8693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -8727,7 +8731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -8765,7 +8769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -8803,7 +8807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -8841,7 +8845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -8879,7 +8883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -8917,7 +8921,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -8955,7 +8959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -8993,7 +8997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -9031,7 +9035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -9069,7 +9073,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -9107,7 +9111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -9145,7 +9149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -9183,7 +9187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -9221,7 +9225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -9259,7 +9263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -9297,7 +9301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -9335,7 +9339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -9373,7 +9377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -9411,7 +9415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -9449,7 +9453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -9487,7 +9491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -9525,7 +9529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -9563,7 +9567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -9601,7 +9605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -9639,7 +9643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -9677,7 +9681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -9715,7 +9719,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -9753,7 +9757,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -9791,7 +9795,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -9829,7 +9833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -9867,7 +9871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -9905,7 +9909,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -9943,7 +9947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -9981,7 +9985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -10019,7 +10023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -10057,7 +10061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -10095,7 +10099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -10133,7 +10137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12">
       <c r="A235" s="2">
         <v>234</v>
       </c>
